--- a/doc/FactorsIndex.xlsx
+++ b/doc/FactorsIndex.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\R\dbproc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\R\dtproc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="11445"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="15525" windowHeight="11445" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CAIHUI" sheetId="1" r:id="rId1"/>
+    <sheet name="WDF" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="145">
   <si>
     <t>Price2EPS_LYR</t>
   </si>
@@ -685,6 +686,23 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H67" totalsRowShown="0">
+  <autoFilter ref="A1:H67"/>
+  <tableColumns count="8">
+    <tableColumn id="8" name="类别"/>
+    <tableColumn id="1" name="因子"/>
+    <tableColumn id="2" name="表1"/>
+    <tableColumn id="3" name="字段1"/>
+    <tableColumn id="4" name="索引1"/>
+    <tableColumn id="5" name="表2"/>
+    <tableColumn id="6" name="字段2"/>
+    <tableColumn id="7" name="索引2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:H67" totalsRowShown="0">
   <autoFilter ref="A1:H67"/>
   <tableColumns count="8">
     <tableColumn id="8" name="类别"/>
@@ -968,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2341,4 +2359,1386 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" ht="15">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G49" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>